--- a/MatriksSimulasiFINA.xlsx
+++ b/MatriksSimulasiFINA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BCAF\FINA-Mobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145360C1-267E-44AE-BFE4-89966944339B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E8A3A1-9AF8-4083-BD48-CE1B3BF0EC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{05393B4B-276E-47C4-95BA-B4DA36F83B17}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="211">
   <si>
     <t>No</t>
   </si>
@@ -167,9 +167,6 @@
     <t>On Loan</t>
   </si>
   <si>
-    <t>Debit</t>
-  </si>
-  <si>
     <t>Mini For Max</t>
   </si>
   <si>
@@ -201,6 +198,477 @@
   </si>
   <si>
     <t>270000000</t>
+  </si>
+  <si>
+    <t>MukaDP2</t>
+  </si>
+  <si>
+    <t>MukaDP1</t>
+  </si>
+  <si>
+    <t>MukaDP3</t>
+  </si>
+  <si>
+    <t>MukaDP4</t>
+  </si>
+  <si>
+    <t>MukaDP5</t>
+  </si>
+  <si>
+    <t>MukaDP6</t>
+  </si>
+  <si>
+    <t>MukaAngsuran1</t>
+  </si>
+  <si>
+    <t>MukaAngsuran2</t>
+  </si>
+  <si>
+    <t>MukaAngsuran3</t>
+  </si>
+  <si>
+    <t>MukaAngsuran4</t>
+  </si>
+  <si>
+    <t>MukaAngsuran5</t>
+  </si>
+  <si>
+    <t>MukaAngsuran6</t>
+  </si>
+  <si>
+    <t>BelakangDP1</t>
+  </si>
+  <si>
+    <t>BelakangDP2</t>
+  </si>
+  <si>
+    <t>BelakangDP3</t>
+  </si>
+  <si>
+    <t>BelakangDP4</t>
+  </si>
+  <si>
+    <t>BelakangDP5</t>
+  </si>
+  <si>
+    <t>BelakangDP6</t>
+  </si>
+  <si>
+    <t>BelakangAngsuran1</t>
+  </si>
+  <si>
+    <t>BelakangAngsuran2</t>
+  </si>
+  <si>
+    <t>BelakangAngsuran3</t>
+  </si>
+  <si>
+    <t>BelakangAngsuran4</t>
+  </si>
+  <si>
+    <t>BelakangAngsuran5</t>
+  </si>
+  <si>
+    <t>BelakangAngsuran6</t>
+  </si>
+  <si>
+    <t>54486000</t>
+  </si>
+  <si>
+    <t>46509000</t>
+  </si>
+  <si>
+    <t>46004000</t>
+  </si>
+  <si>
+    <t>46723000</t>
+  </si>
+  <si>
+    <t>47545000</t>
+  </si>
+  <si>
+    <t>48605000</t>
+  </si>
+  <si>
+    <t>21615000</t>
+  </si>
+  <si>
+    <t>11453000</t>
+  </si>
+  <si>
+    <t>8259000</t>
+  </si>
+  <si>
+    <t>6584000</t>
+  </si>
+  <si>
+    <t>5433000</t>
+  </si>
+  <si>
+    <t>4899000</t>
+  </si>
+  <si>
+    <t>26646000</t>
+  </si>
+  <si>
+    <t>28849000</t>
+  </si>
+  <si>
+    <t>31572000</t>
+  </si>
+  <si>
+    <t>34188000</t>
+  </si>
+  <si>
+    <t>36470000</t>
+  </si>
+  <si>
+    <t>38071000</t>
+  </si>
+  <si>
+    <t>22183000</t>
+  </si>
+  <si>
+    <t>11754000</t>
+  </si>
+  <si>
+    <t>8476000</t>
+  </si>
+  <si>
+    <t>6752000</t>
+  </si>
+  <si>
+    <t>5565000</t>
+  </si>
+  <si>
+    <t>5017000</t>
+  </si>
+  <si>
+    <t>243307000</t>
+  </si>
+  <si>
+    <t>221461000</t>
+  </si>
+  <si>
+    <t>226229000</t>
+  </si>
+  <si>
+    <t>235808000</t>
+  </si>
+  <si>
+    <t>245969000</t>
+  </si>
+  <si>
+    <t>255827000</t>
+  </si>
+  <si>
+    <t>78486000</t>
+  </si>
+  <si>
+    <t>41130000</t>
+  </si>
+  <si>
+    <t>28929000</t>
+  </si>
+  <si>
+    <t>23023000</t>
+  </si>
+  <si>
+    <t>19633000</t>
+  </si>
+  <si>
+    <t>17304000</t>
+  </si>
+  <si>
+    <t>125648000</t>
+  </si>
+  <si>
+    <t>141267000</t>
+  </si>
+  <si>
+    <t>158432000</t>
+  </si>
+  <si>
+    <t>174272000</t>
+  </si>
+  <si>
+    <t>188214000</t>
+  </si>
+  <si>
+    <t>200439000</t>
+  </si>
+  <si>
+    <t>81900000</t>
+  </si>
+  <si>
+    <t>42919000</t>
+  </si>
+  <si>
+    <t>30188000</t>
+  </si>
+  <si>
+    <t>24019000</t>
+  </si>
+  <si>
+    <t>20475000</t>
+  </si>
+  <si>
+    <t>18047000</t>
+  </si>
+  <si>
+    <t>254946000</t>
+  </si>
+  <si>
+    <t>233491000</t>
+  </si>
+  <si>
+    <t>231149000</t>
+  </si>
+  <si>
+    <t>232685000</t>
+  </si>
+  <si>
+    <t>235268000</t>
+  </si>
+  <si>
+    <t>237600000</t>
+  </si>
+  <si>
+    <t>55277000</t>
+  </si>
+  <si>
+    <t>28712000</t>
+  </si>
+  <si>
+    <t>19902000</t>
+  </si>
+  <si>
+    <t>15703000</t>
+  </si>
+  <si>
+    <t>13605000</t>
+  </si>
+  <si>
+    <t>12228000</t>
+  </si>
+  <si>
+    <t>173500000</t>
+  </si>
+  <si>
+    <t>178683000</t>
+  </si>
+  <si>
+    <t>185283000</t>
+  </si>
+  <si>
+    <t>191320000</t>
+  </si>
+  <si>
+    <t>196360000</t>
+  </si>
+  <si>
+    <t>200095000</t>
+  </si>
+  <si>
+    <t>57536000</t>
+  </si>
+  <si>
+    <t>29886000</t>
+  </si>
+  <si>
+    <t>20715000</t>
+  </si>
+  <si>
+    <t>16340000</t>
+  </si>
+  <si>
+    <t>14150000</t>
+  </si>
+  <si>
+    <t>12718000</t>
+  </si>
+  <si>
+    <t>23329000</t>
+  </si>
+  <si>
+    <t>19710000</t>
+  </si>
+  <si>
+    <t>19101000</t>
+  </si>
+  <si>
+    <t>18913000</t>
+  </si>
+  <si>
+    <t>18878000</t>
+  </si>
+  <si>
+    <t>18787000</t>
+  </si>
+  <si>
+    <t>8857000</t>
+  </si>
+  <si>
+    <t>4948000</t>
+  </si>
+  <si>
+    <t>3655000</t>
+  </si>
+  <si>
+    <t>3014000</t>
+  </si>
+  <si>
+    <t>2666000</t>
+  </si>
+  <si>
+    <t>2420000</t>
+  </si>
+  <si>
+    <t>109936000</t>
+  </si>
+  <si>
+    <t>98567000</t>
+  </si>
+  <si>
+    <t>96082000</t>
+  </si>
+  <si>
+    <t>95286000</t>
+  </si>
+  <si>
+    <t>94998000</t>
+  </si>
+  <si>
+    <t>94536000</t>
+  </si>
+  <si>
+    <t>26800000</t>
+  </si>
+  <si>
+    <t>14603000</t>
+  </si>
+  <si>
+    <t>10607000</t>
+  </si>
+  <si>
+    <t>8584000</t>
+  </si>
+  <si>
+    <t>7505000</t>
+  </si>
+  <si>
+    <t>6703000</t>
+  </si>
+  <si>
+    <t>302721000</t>
+  </si>
+  <si>
+    <t>279119000</t>
+  </si>
+  <si>
+    <t>273945000</t>
+  </si>
+  <si>
+    <t>272275000</t>
+  </si>
+  <si>
+    <t>271780000</t>
+  </si>
+  <si>
+    <t>270806000</t>
+  </si>
+  <si>
+    <t>55431000</t>
+  </si>
+  <si>
+    <t>30117000</t>
+  </si>
+  <si>
+    <t>21822000</t>
+  </si>
+  <si>
+    <t>17620000</t>
+  </si>
+  <si>
+    <t>15502000</t>
+  </si>
+  <si>
+    <t>13835000</t>
+  </si>
+  <si>
+    <t>1181684000</t>
+  </si>
+  <si>
+    <t>1167581000</t>
+  </si>
+  <si>
+    <t>1165092000</t>
+  </si>
+  <si>
+    <t>1164971000</t>
+  </si>
+  <si>
+    <t>1161810000</t>
+  </si>
+  <si>
+    <t>1161562000</t>
+  </si>
+  <si>
+    <t>34878000</t>
+  </si>
+  <si>
+    <t>19513000</t>
+  </si>
+  <si>
+    <t>14681000</t>
+  </si>
+  <si>
+    <t>12501000</t>
+  </si>
+  <si>
+    <t>7862000</t>
+  </si>
+  <si>
+    <t>6787000</t>
+  </si>
+  <si>
+    <t>217234000</t>
+  </si>
+  <si>
+    <t>219035000</t>
+  </si>
+  <si>
+    <t>222319000</t>
+  </si>
+  <si>
+    <t>224981000</t>
+  </si>
+  <si>
+    <t>226685000</t>
+  </si>
+  <si>
+    <t>227410000</t>
+  </si>
+  <si>
+    <t>59044000</t>
+  </si>
+  <si>
+    <t>32381000</t>
+  </si>
+  <si>
+    <t>23509000</t>
+  </si>
+  <si>
+    <t>19494000</t>
+  </si>
+  <si>
+    <t>10962000</t>
+  </si>
+  <si>
+    <t>9180000</t>
+  </si>
+  <si>
+    <t>Budget</t>
   </si>
 </sst>
 </file>
@@ -222,7 +690,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +700,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,31 +765,30 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
       <right style="thin">
         <color theme="2" tint="-9.9978637043366805E-2"/>
       </right>
-      <top style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9978637043366805E-2"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,88 +1123,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E65E03-E480-4674-A4F3-6FCA393F3A95}">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:AP29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="24" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="30" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="36" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="42" width="17" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="E1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="S1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP1" s="8" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>3</v>
       </c>
@@ -741,12 +1290,12 @@
       <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="4">
@@ -782,8 +1331,80 @@
       <c r="R2" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="S2" t="s">
+        <v>78</v>
+      </c>
+      <c r="T2" t="s">
+        <v>79</v>
+      </c>
+      <c r="U2" t="s">
+        <v>80</v>
+      </c>
+      <c r="V2" t="s">
+        <v>81</v>
+      </c>
+      <c r="W2" t="s">
+        <v>82</v>
+      </c>
+      <c r="X2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>4</v>
       </c>
@@ -793,12 +1414,12 @@
       <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H3" s="4">
@@ -834,8 +1455,80 @@
       <c r="R3" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="S3" t="s">
+        <v>102</v>
+      </c>
+      <c r="T3" t="s">
+        <v>103</v>
+      </c>
+      <c r="U3" t="s">
+        <v>104</v>
+      </c>
+      <c r="V3" t="s">
+        <v>105</v>
+      </c>
+      <c r="W3" t="s">
+        <v>106</v>
+      </c>
+      <c r="X3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>5</v>
       </c>
@@ -845,12 +1538,12 @@
       <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
         <v>28</v>
       </c>
       <c r="H4" s="4">
@@ -886,8 +1579,80 @@
       <c r="R4" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="S4" t="s">
+        <v>126</v>
+      </c>
+      <c r="T4" t="s">
+        <v>127</v>
+      </c>
+      <c r="U4" t="s">
+        <v>128</v>
+      </c>
+      <c r="V4" t="s">
+        <v>129</v>
+      </c>
+      <c r="W4" t="s">
+        <v>130</v>
+      </c>
+      <c r="X4" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>7</v>
       </c>
@@ -897,12 +1662,12 @@
       <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="H5" s="4">
@@ -938,8 +1703,44 @@
       <c r="R5" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="S5" t="s">
+        <v>150</v>
+      </c>
+      <c r="T5" t="s">
+        <v>151</v>
+      </c>
+      <c r="U5" t="s">
+        <v>152</v>
+      </c>
+      <c r="V5" t="s">
+        <v>153</v>
+      </c>
+      <c r="W5" t="s">
+        <v>154</v>
+      </c>
+      <c r="X5" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>8</v>
       </c>
@@ -949,12 +1750,12 @@
       <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="4">
@@ -990,8 +1791,44 @@
       <c r="R6" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="S6" t="s">
+        <v>162</v>
+      </c>
+      <c r="T6" t="s">
+        <v>163</v>
+      </c>
+      <c r="U6" t="s">
+        <v>164</v>
+      </c>
+      <c r="V6" t="s">
+        <v>165</v>
+      </c>
+      <c r="W6" t="s">
+        <v>166</v>
+      </c>
+      <c r="X6" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>173</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>9</v>
       </c>
@@ -1001,12 +1838,12 @@
       <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H7" s="4">
@@ -1042,8 +1879,80 @@
       <c r="R7" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="S7" t="s">
+        <v>174</v>
+      </c>
+      <c r="T7" t="s">
+        <v>175</v>
+      </c>
+      <c r="U7" t="s">
+        <v>176</v>
+      </c>
+      <c r="V7" t="s">
+        <v>177</v>
+      </c>
+      <c r="W7" t="s">
+        <v>178</v>
+      </c>
+      <c r="X7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>208</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>209</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>10</v>
       </c>
@@ -1053,12 +1962,12 @@
       <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H8" s="4">
@@ -1094,25 +2003,61 @@
       <c r="R8" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="S8" t="s">
+        <v>186</v>
+      </c>
+      <c r="T8" t="s">
+        <v>187</v>
+      </c>
+      <c r="U8" t="s">
+        <v>188</v>
+      </c>
+      <c r="V8" t="s">
+        <v>189</v>
+      </c>
+      <c r="W8" t="s">
+        <v>190</v>
+      </c>
+      <c r="X8" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>197</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7" t="s">
+      <c r="E9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H9" s="4">
@@ -1148,25 +2093,97 @@
       <c r="R9" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="S9" t="s">
+        <v>78</v>
+      </c>
+      <c r="T9" t="s">
+        <v>79</v>
+      </c>
+      <c r="U9" t="s">
+        <v>80</v>
+      </c>
+      <c r="V9" t="s">
+        <v>81</v>
+      </c>
+      <c r="W9" t="s">
+        <v>82</v>
+      </c>
+      <c r="X9" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7" t="s">
+      <c r="E10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H10" s="4">
@@ -1202,25 +2219,97 @@
       <c r="R10" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="S10" t="s">
+        <v>102</v>
+      </c>
+      <c r="T10" t="s">
+        <v>103</v>
+      </c>
+      <c r="U10" t="s">
+        <v>104</v>
+      </c>
+      <c r="V10" t="s">
+        <v>105</v>
+      </c>
+      <c r="W10" t="s">
+        <v>106</v>
+      </c>
+      <c r="X10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
+      <c r="E11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
         <v>28</v>
       </c>
       <c r="H11" s="4">
@@ -1256,26 +2345,97 @@
       <c r="R11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="S11" s="5"/>
+      <c r="S11" t="s">
+        <v>126</v>
+      </c>
+      <c r="T11" t="s">
+        <v>127</v>
+      </c>
+      <c r="U11" t="s">
+        <v>128</v>
+      </c>
+      <c r="V11" t="s">
+        <v>129</v>
+      </c>
+      <c r="W11" t="s">
+        <v>130</v>
+      </c>
+      <c r="X11" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7" t="s">
+      <c r="E12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="H12" s="4">
@@ -1311,25 +2471,61 @@
       <c r="R12" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="S12" t="s">
+        <v>150</v>
+      </c>
+      <c r="T12" t="s">
+        <v>151</v>
+      </c>
+      <c r="U12" t="s">
+        <v>152</v>
+      </c>
+      <c r="V12" t="s">
+        <v>153</v>
+      </c>
+      <c r="W12" t="s">
+        <v>154</v>
+      </c>
+      <c r="X12" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7" t="s">
+      <c r="E13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H13" s="4">
@@ -1365,25 +2561,61 @@
       <c r="R13" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="S13" t="s">
+        <v>162</v>
+      </c>
+      <c r="T13" t="s">
+        <v>163</v>
+      </c>
+      <c r="U13" t="s">
+        <v>164</v>
+      </c>
+      <c r="V13" t="s">
+        <v>165</v>
+      </c>
+      <c r="W13" t="s">
+        <v>166</v>
+      </c>
+      <c r="X13" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>173</v>
+      </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7" t="s">
+      <c r="E14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H14" s="4">
@@ -1419,25 +2651,97 @@
       <c r="R14" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="S14" t="s">
+        <v>174</v>
+      </c>
+      <c r="T14" t="s">
+        <v>175</v>
+      </c>
+      <c r="U14" t="s">
+        <v>176</v>
+      </c>
+      <c r="V14" t="s">
+        <v>177</v>
+      </c>
+      <c r="W14" t="s">
+        <v>178</v>
+      </c>
+      <c r="X14" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>208</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>209</v>
+      </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7" t="s">
+      <c r="E15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H15" s="4">
@@ -1473,25 +2777,61 @@
       <c r="R15" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="S15" t="s">
+        <v>186</v>
+      </c>
+      <c r="T15" t="s">
+        <v>187</v>
+      </c>
+      <c r="U15" t="s">
+        <v>188</v>
+      </c>
+      <c r="V15" t="s">
+        <v>189</v>
+      </c>
+      <c r="W15" t="s">
+        <v>190</v>
+      </c>
+      <c r="X15" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>197</v>
+      </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>3</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7" t="s">
+      <c r="E16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H16" s="4">
@@ -1527,25 +2867,97 @@
       <c r="R16" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="S16" t="s">
+        <v>78</v>
+      </c>
+      <c r="T16" t="s">
+        <v>79</v>
+      </c>
+      <c r="U16" t="s">
+        <v>80</v>
+      </c>
+      <c r="V16" t="s">
+        <v>81</v>
+      </c>
+      <c r="W16" t="s">
+        <v>82</v>
+      </c>
+      <c r="X16" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>98</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>4</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7" t="s">
+      <c r="E17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H17" s="4">
@@ -1581,25 +2993,97 @@
       <c r="R17" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="S17" t="s">
+        <v>102</v>
+      </c>
+      <c r="T17" t="s">
+        <v>103</v>
+      </c>
+      <c r="U17" t="s">
+        <v>104</v>
+      </c>
+      <c r="V17" t="s">
+        <v>105</v>
+      </c>
+      <c r="W17" t="s">
+        <v>106</v>
+      </c>
+      <c r="X17" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7" t="s">
+      <c r="E18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6" t="s">
         <v>28</v>
       </c>
       <c r="H18" s="4">
@@ -1635,25 +3119,97 @@
       <c r="R18" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="S18" t="s">
+        <v>126</v>
+      </c>
+      <c r="T18" t="s">
+        <v>127</v>
+      </c>
+      <c r="U18" t="s">
+        <v>128</v>
+      </c>
+      <c r="V18" t="s">
+        <v>129</v>
+      </c>
+      <c r="W18" t="s">
+        <v>130</v>
+      </c>
+      <c r="X18" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>7</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7" t="s">
+      <c r="E19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
         <v>29</v>
       </c>
       <c r="H19" s="4">
@@ -1689,25 +3245,61 @@
       <c r="R19" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="S19" t="s">
+        <v>150</v>
+      </c>
+      <c r="T19" t="s">
+        <v>151</v>
+      </c>
+      <c r="U19" t="s">
+        <v>152</v>
+      </c>
+      <c r="V19" t="s">
+        <v>153</v>
+      </c>
+      <c r="W19" t="s">
+        <v>154</v>
+      </c>
+      <c r="X19" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>8</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7" t="s">
+      <c r="E20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H20" s="4">
@@ -1743,25 +3335,61 @@
       <c r="R20" s="4" t="s">
         <v>41</v>
       </c>
+      <c r="S20" t="s">
+        <v>162</v>
+      </c>
+      <c r="T20" t="s">
+        <v>163</v>
+      </c>
+      <c r="U20" t="s">
+        <v>164</v>
+      </c>
+      <c r="V20" t="s">
+        <v>165</v>
+      </c>
+      <c r="W20" t="s">
+        <v>166</v>
+      </c>
+      <c r="X20" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>173</v>
+      </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>9</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7" t="s">
+      <c r="E21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H21" s="4">
@@ -1797,25 +3425,97 @@
       <c r="R21" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="S21" t="s">
+        <v>174</v>
+      </c>
+      <c r="T21" t="s">
+        <v>175</v>
+      </c>
+      <c r="U21" t="s">
+        <v>176</v>
+      </c>
+      <c r="V21" t="s">
+        <v>177</v>
+      </c>
+      <c r="W21" t="s">
+        <v>178</v>
+      </c>
+      <c r="X21" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>208</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>209</v>
+      </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>10</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>43</v>
+        <v>210</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7" t="s">
+      <c r="E22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H22" s="4">
@@ -1851,32 +3551,68 @@
       <c r="R22" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="S22" t="s">
+        <v>186</v>
+      </c>
+      <c r="T22" t="s">
+        <v>187</v>
+      </c>
+      <c r="U22" t="s">
+        <v>188</v>
+      </c>
+      <c r="V22" t="s">
+        <v>189</v>
+      </c>
+      <c r="W22" t="s">
+        <v>190</v>
+      </c>
+      <c r="X22" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>197</v>
+      </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>11</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="D23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H23" s="4">
         <v>2023</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>0</v>
@@ -1906,31 +3642,31 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>12</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="D24" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H24" s="4">
         <v>2023</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>0</v>
@@ -1960,31 +3696,31 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>13</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="E25" s="6"/>
+      <c r="F25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>28</v>
       </c>
       <c r="H25" s="4">
         <v>2023</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>0</v>
@@ -2014,16 +3750,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
       <c r="N26" s="1"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="3"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
       <c r="J29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/MatriksSimulasiFINA.xlsx
+++ b/MatriksSimulasiFINA.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BCAF\FINA-Mobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E8A3A1-9AF8-4083-BD48-CE1B3BF0EC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{A838DEF8-4198-4C2A-9E14-88FF7B58EB9F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{05393B4B-276E-47C4-95BA-B4DA36F83B17}"/>
+    <workbookView windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{05393B4B-276E-47C4-95BA-B4DA36F83B17}" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="247">
   <si>
     <t>No</t>
   </si>
@@ -669,12 +669,121 @@
   </si>
   <si>
     <t>Budget</t>
+  </si>
+  <si>
+    <t>49231000</t>
+  </si>
+  <si>
+    <t>39601000</t>
+  </si>
+  <si>
+    <t>37654000</t>
+  </si>
+  <si>
+    <t>37011000</t>
+  </si>
+  <si>
+    <t>36519000</t>
+  </si>
+  <si>
+    <t>36274000</t>
+  </si>
+  <si>
+    <t>22144000</t>
+  </si>
+  <si>
+    <t>11803000</t>
+  </si>
+  <si>
+    <t>8559000</t>
+  </si>
+  <si>
+    <t>6861000</t>
+  </si>
+  <si>
+    <t>5691000</t>
+  </si>
+  <si>
+    <t>5157000</t>
+  </si>
+  <si>
+    <t>230964000</t>
+  </si>
+  <si>
+    <t>196277000</t>
+  </si>
+  <si>
+    <t>188944000</t>
+  </si>
+  <si>
+    <t>187074000</t>
+  </si>
+  <si>
+    <t>186360000</t>
+  </si>
+  <si>
+    <t>185293000</t>
+  </si>
+  <si>
+    <t>79664000</t>
+  </si>
+  <si>
+    <t>42339000</t>
+  </si>
+  <si>
+    <t>30177000</t>
+  </si>
+  <si>
+    <t>24317000</t>
+  </si>
+  <si>
+    <t>20980000</t>
+  </si>
+  <si>
+    <t>18708000</t>
+  </si>
+  <si>
+    <t>251828000</t>
+  </si>
+  <si>
+    <t>227080000</t>
+  </si>
+  <si>
+    <t>221575000</t>
+  </si>
+  <si>
+    <t>220062000</t>
+  </si>
+  <si>
+    <t>219696000</t>
+  </si>
+  <si>
+    <t>219068000</t>
+  </si>
+  <si>
+    <t>55572000</t>
+  </si>
+  <si>
+    <t>29014000</t>
+  </si>
+  <si>
+    <t>20212000</t>
+  </si>
+  <si>
+    <t>16024000</t>
+  </si>
+  <si>
+    <t>13948000</t>
+  </si>
+  <si>
+    <t>12594000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -777,24 +886,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="5" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -811,10 +920,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -849,7 +958,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin panose="02110004020202020204" typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -901,7 +1010,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin panose="02110004020202020204" typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1012,21 +1121,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1043,7 +1152,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1115,41 +1224,41 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" name="Office Theme" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E65E03-E480-4674-A4F3-6FCA393F3A95}">
-  <dimension ref="A1:AP29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E65E03-E480-4674-A4F3-6FCA393F3A95}">
+  <dimension ref="A1:AQ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="8.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="24" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="30" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="36" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="42" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="3.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.77734375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.21875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="8.21875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.21875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.5546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="19" max="24" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="25" max="30" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="31" max="36" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="37" max="42" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.3">
@@ -1332,40 +1441,40 @@
         <v>42</v>
       </c>
       <c r="S2" t="s">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="T2" t="s">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="U2" t="s">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="V2" t="s">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="W2" t="s">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="X2" t="s">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="Y2" t="s">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c r="Z2" t="s">
-        <v>85</v>
+        <v>218</v>
       </c>
       <c r="AA2" t="s">
-        <v>86</v>
+        <v>219</v>
       </c>
       <c r="AB2" t="s">
-        <v>87</v>
+        <v>220</v>
       </c>
       <c r="AC2" t="s">
-        <v>88</v>
+        <v>221</v>
       </c>
       <c r="AD2" t="s">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="AE2" t="s">
         <v>90</v>
@@ -1456,40 +1565,40 @@
         <v>42</v>
       </c>
       <c r="S3" t="s">
-        <v>102</v>
+        <v>223</v>
       </c>
       <c r="T3" t="s">
-        <v>103</v>
+        <v>224</v>
       </c>
       <c r="U3" t="s">
-        <v>104</v>
+        <v>225</v>
       </c>
       <c r="V3" t="s">
-        <v>105</v>
+        <v>226</v>
       </c>
       <c r="W3" t="s">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="X3" t="s">
-        <v>107</v>
+        <v>228</v>
       </c>
       <c r="Y3" t="s">
-        <v>108</v>
+        <v>229</v>
       </c>
       <c r="Z3" t="s">
-        <v>109</v>
+        <v>230</v>
       </c>
       <c r="AA3" t="s">
-        <v>110</v>
+        <v>231</v>
       </c>
       <c r="AB3" t="s">
-        <v>111</v>
+        <v>232</v>
       </c>
       <c r="AC3" t="s">
-        <v>112</v>
+        <v>233</v>
       </c>
       <c r="AD3" t="s">
-        <v>113</v>
+        <v>234</v>
       </c>
       <c r="AE3" t="s">
         <v>114</v>
@@ -1580,40 +1689,40 @@
         <v>42</v>
       </c>
       <c r="S4" t="s">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c r="T4" t="s">
-        <v>127</v>
+        <v>236</v>
       </c>
       <c r="U4" t="s">
-        <v>128</v>
+        <v>237</v>
       </c>
       <c r="V4" t="s">
-        <v>129</v>
+        <v>238</v>
       </c>
       <c r="W4" t="s">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="X4" t="s">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c r="Y4" t="s">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="Z4" t="s">
-        <v>133</v>
+        <v>242</v>
       </c>
       <c r="AA4" t="s">
-        <v>134</v>
+        <v>243</v>
       </c>
       <c r="AB4" t="s">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="AC4" t="s">
-        <v>136</v>
+        <v>245</v>
       </c>
       <c r="AD4" t="s">
-        <v>137</v>
+        <v>246</v>
       </c>
       <c r="AE4" t="s">
         <v>138</v>
@@ -2094,40 +2203,40 @@
         <v>42</v>
       </c>
       <c r="S9" t="s">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="T9" t="s">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="U9" t="s">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="V9" t="s">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="W9" t="s">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="X9" t="s">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="Y9" t="s">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c r="Z9" t="s">
-        <v>85</v>
+        <v>218</v>
       </c>
       <c r="AA9" t="s">
-        <v>86</v>
+        <v>219</v>
       </c>
       <c r="AB9" t="s">
-        <v>87</v>
+        <v>220</v>
       </c>
       <c r="AC9" t="s">
-        <v>88</v>
+        <v>221</v>
       </c>
       <c r="AD9" t="s">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="AE9" t="s">
         <v>90</v>
@@ -2220,40 +2329,40 @@
         <v>42</v>
       </c>
       <c r="S10" t="s">
-        <v>102</v>
+        <v>223</v>
       </c>
       <c r="T10" t="s">
-        <v>103</v>
+        <v>224</v>
       </c>
       <c r="U10" t="s">
-        <v>104</v>
+        <v>225</v>
       </c>
       <c r="V10" t="s">
-        <v>105</v>
+        <v>226</v>
       </c>
       <c r="W10" t="s">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="X10" t="s">
-        <v>107</v>
+        <v>228</v>
       </c>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>229</v>
       </c>
       <c r="Z10" t="s">
-        <v>109</v>
+        <v>230</v>
       </c>
       <c r="AA10" t="s">
-        <v>110</v>
+        <v>231</v>
       </c>
       <c r="AB10" t="s">
-        <v>111</v>
+        <v>232</v>
       </c>
       <c r="AC10" t="s">
-        <v>112</v>
+        <v>233</v>
       </c>
       <c r="AD10" t="s">
-        <v>113</v>
+        <v>234</v>
       </c>
       <c r="AE10" t="s">
         <v>114</v>
@@ -2346,40 +2455,40 @@
         <v>42</v>
       </c>
       <c r="S11" t="s">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c r="T11" t="s">
-        <v>127</v>
+        <v>236</v>
       </c>
       <c r="U11" t="s">
-        <v>128</v>
+        <v>237</v>
       </c>
       <c r="V11" t="s">
-        <v>129</v>
+        <v>238</v>
       </c>
       <c r="W11" t="s">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="X11" t="s">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c r="Y11" t="s">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="Z11" t="s">
-        <v>133</v>
+        <v>242</v>
       </c>
       <c r="AA11" t="s">
-        <v>134</v>
+        <v>243</v>
       </c>
       <c r="AB11" t="s">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="AC11" t="s">
-        <v>136</v>
+        <v>245</v>
       </c>
       <c r="AD11" t="s">
-        <v>137</v>
+        <v>246</v>
       </c>
       <c r="AE11" t="s">
         <v>138</v>
@@ -2868,40 +2977,40 @@
         <v>42</v>
       </c>
       <c r="S16" t="s">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="T16" t="s">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="U16" t="s">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="V16" t="s">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="W16" t="s">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="X16" t="s">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="Y16" t="s">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c r="Z16" t="s">
-        <v>85</v>
+        <v>218</v>
       </c>
       <c r="AA16" t="s">
-        <v>86</v>
+        <v>219</v>
       </c>
       <c r="AB16" t="s">
-        <v>87</v>
+        <v>220</v>
       </c>
       <c r="AC16" t="s">
-        <v>88</v>
+        <v>221</v>
       </c>
       <c r="AD16" t="s">
-        <v>89</v>
+        <v>222</v>
       </c>
       <c r="AE16" t="s">
         <v>90</v>
@@ -2994,40 +3103,40 @@
         <v>42</v>
       </c>
       <c r="S17" t="s">
-        <v>102</v>
+        <v>223</v>
       </c>
       <c r="T17" t="s">
-        <v>103</v>
+        <v>224</v>
       </c>
       <c r="U17" t="s">
-        <v>104</v>
+        <v>225</v>
       </c>
       <c r="V17" t="s">
-        <v>105</v>
+        <v>226</v>
       </c>
       <c r="W17" t="s">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="X17" t="s">
-        <v>107</v>
+        <v>228</v>
       </c>
       <c r="Y17" t="s">
-        <v>108</v>
+        <v>229</v>
       </c>
       <c r="Z17" t="s">
-        <v>109</v>
+        <v>230</v>
       </c>
       <c r="AA17" t="s">
-        <v>110</v>
+        <v>231</v>
       </c>
       <c r="AB17" t="s">
-        <v>111</v>
+        <v>232</v>
       </c>
       <c r="AC17" t="s">
-        <v>112</v>
+        <v>233</v>
       </c>
       <c r="AD17" t="s">
-        <v>113</v>
+        <v>234</v>
       </c>
       <c r="AE17" t="s">
         <v>114</v>
@@ -3120,40 +3229,40 @@
         <v>42</v>
       </c>
       <c r="S18" t="s">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c r="T18" t="s">
-        <v>127</v>
+        <v>236</v>
       </c>
       <c r="U18" t="s">
-        <v>128</v>
+        <v>237</v>
       </c>
       <c r="V18" t="s">
-        <v>129</v>
+        <v>238</v>
       </c>
       <c r="W18" t="s">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="X18" t="s">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c r="Y18" t="s">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="Z18" t="s">
-        <v>133</v>
+        <v>242</v>
       </c>
       <c r="AA18" t="s">
-        <v>134</v>
+        <v>243</v>
       </c>
       <c r="AB18" t="s">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="AC18" t="s">
-        <v>136</v>
+        <v>245</v>
       </c>
       <c r="AD18" t="s">
-        <v>137</v>
+        <v>246</v>
       </c>
       <c r="AE18" t="s">
         <v>138</v>
@@ -3764,6 +3873,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>